--- a/Karar Destek Sistemleri/excel/veri.xlsx
+++ b/Karar Destek Sistemleri/excel/veri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husey\OneDrive\Masaüstü\Yeni klasör\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husey\OneDrive\Masaüstü\Yeni klasör\Karar Destek Sistemleri\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B37DCC7-7789-4C55-A6C8-D4D65DD44190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E918B39-DDF3-4095-96BE-361231AC729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="570" windowWidth="21060" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ulaşım Maliyeti</t>
   </si>
@@ -45,34 +45,90 @@
     <t>Hava Sıcaklığı</t>
   </si>
   <si>
-    <t>Denizli</t>
-  </si>
-  <si>
-    <t>Adana</t>
-  </si>
-  <si>
-    <t>Adıyaman</t>
-  </si>
-  <si>
-    <t>Kars</t>
-  </si>
-  <si>
     <t>Ulaşım Süresi (Dk)</t>
   </si>
   <si>
     <t>Seçenekler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ay Işığında Rüya Tatili </t>
+  </si>
+  <si>
+    <t>Gökkuşağı Noktası Resort</t>
+  </si>
+  <si>
+    <t>Zephyr Adası Butik Kafile</t>
+  </si>
+  <si>
+    <t>Huzurun Adımı Villaları</t>
+  </si>
+  <si>
+    <t>Dağın Kucağı Panorama Inn</t>
+  </si>
+  <si>
+    <t>Şelale Cenneti Retreat</t>
+  </si>
+  <si>
+    <t>Rüzgarın Dansı Tatil Inn</t>
+  </si>
+  <si>
+    <t>Gün Batımı Rüyası Villası</t>
+  </si>
+  <si>
+    <t>Mavi Göl Huzur Lodge</t>
+  </si>
+  <si>
+    <t>Bahar Esintisi Hotel</t>
+  </si>
+  <si>
+    <t>Efsane Adada Butik Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessiz Koy Villaları </t>
+  </si>
+  <si>
+    <t>Riviera Elips Rüya Resort</t>
+  </si>
+  <si>
+    <t>Ay Işığında Lunaris Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenith Palace Harikası </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rüya Resort &amp; Spa </t>
+  </si>
+  <si>
+    <t>Gizemli Doruk Tatil Köyü</t>
+  </si>
+  <si>
+    <t>Denizaltı Elips Resort</t>
+  </si>
+  <si>
+    <t>Efsane Laguna Kafile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,6 +156,19 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,11 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,31 +512,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -481,425 +556,524 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>800</v>
+      </c>
+      <c r="C2" s="4">
+        <v>180</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="4">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C4" s="4">
+        <v>240</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7800</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C5" s="4">
+        <v>90</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6200</v>
+      </c>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>4123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>2213</v>
-      </c>
-      <c r="E2">
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>210</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="4">
+        <v>200</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>74</v>
-      </c>
-      <c r="G2">
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>160</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="G9" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="4">
+        <v>120</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>130</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7200</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1900</v>
+      </c>
+      <c r="C12" s="4">
+        <v>250</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C13" s="4">
+        <v>270</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>14124</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-      <c r="D3">
-        <v>2224</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1234</v>
-      </c>
-      <c r="C4">
-        <v>322</v>
-      </c>
-      <c r="D4">
-        <v>1123</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>325</v>
-      </c>
-      <c r="C5">
-        <v>432</v>
-      </c>
-      <c r="D5">
-        <v>1425</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4123</v>
-      </c>
-      <c r="C6">
-        <v>123</v>
-      </c>
-      <c r="D6">
-        <v>2213</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>74</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>14124</v>
-      </c>
-      <c r="C7">
-        <v>123</v>
-      </c>
-      <c r="D7">
-        <v>2224</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1234</v>
-      </c>
-      <c r="C8">
-        <v>322</v>
-      </c>
-      <c r="D8">
-        <v>1123</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>325</v>
-      </c>
-      <c r="C9">
-        <v>432</v>
-      </c>
-      <c r="D9">
-        <v>1425</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>4123</v>
-      </c>
-      <c r="C10">
-        <v>123</v>
-      </c>
-      <c r="D10">
-        <v>2213</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>74</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>14124</v>
-      </c>
-      <c r="C11">
-        <v>123</v>
-      </c>
-      <c r="D11">
-        <v>2224</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1234</v>
-      </c>
-      <c r="C12">
-        <v>322</v>
-      </c>
-      <c r="D12">
-        <v>1123</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>325</v>
-      </c>
-      <c r="C13">
-        <v>432</v>
-      </c>
-      <c r="D13">
-        <v>1425</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
+      <c r="G13" s="8">
+        <v>8.8000000000000007</v>
       </c>
       <c r="H13">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>4123</v>
-      </c>
-      <c r="C14">
-        <v>123</v>
-      </c>
-      <c r="D14">
-        <v>2213</v>
-      </c>
-      <c r="E14">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>220</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8500</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>18</v>
+      </c>
+      <c r="G14" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="4">
+        <v>190</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9500</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C16" s="4">
+        <v>230</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C17" s="4">
+        <v>260</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>22</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="4">
+        <v>280</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="4">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7800</v>
+      </c>
+      <c r="E19" s="4">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>74</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C20" s="4">
+        <v>210</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8">
+        <v>8</v>
+      </c>
+      <c r="H20">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>14124</v>
-      </c>
-      <c r="C15">
-        <v>123</v>
-      </c>
-      <c r="D15">
-        <v>2224</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>31</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1234</v>
-      </c>
-      <c r="C16">
-        <v>322</v>
-      </c>
-      <c r="D16">
-        <v>1123</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>23</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>325</v>
-      </c>
-      <c r="C17">
-        <v>432</v>
-      </c>
-      <c r="D17">
-        <v>1425</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>26</v>
-      </c>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>